--- a/грузия/Сколько комн заним жил (трансп).xlsx
+++ b/грузия/Сколько комн заним жил (трансп).xlsx
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>11352</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1608,8 +1608,12 @@
       <c r="E53">
         <v>19647</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>SUM(Таблица58[Количество домов])</f>
+        <v>3625346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
